--- a/data/NBCClimateStns_VF.xlsx
+++ b/data/NBCClimateStns_VF.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwang/Documents/projects/nbcclim/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE41787-36EB-CF40-9613-8A0EA6FF8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjk//wjjGaIvpJ31phnsrbHmr3mRw=="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>lat</t>
   </si>
@@ -289,37 +298,49 @@
   </si>
   <si>
     <t>Stone Creek</t>
+  </si>
+  <si>
+    <t>Caribou Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,43 +348,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="15" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -553,33 +582,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="11.71"/>
-    <col customWidth="1" min="3" max="4" width="19.14"/>
-    <col customWidth="1" min="5" max="5" width="8.86"/>
-    <col customWidth="1" min="6" max="6" width="12.86"/>
-    <col customWidth="1" min="7" max="8" width="26.29"/>
-    <col customWidth="1" min="9" max="9" width="11.43"/>
-    <col customWidth="1" min="10" max="10" width="38.14"/>
-    <col customWidth="1" min="11" max="11" width="11.43"/>
-    <col customWidth="1" min="12" max="12" width="28.71"/>
-    <col customWidth="1" min="13" max="26" width="8.86"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="38.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>55.078885</v>
       </c>
@@ -631,10 +662,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="1">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="F2" s="2">
-        <v>41053.0</v>
+        <v>41053</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -643,9 +674,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>55.108173</v>
+        <v>55.108173000000001</v>
       </c>
       <c r="B3" s="1">
         <v>-127.37474</v>
@@ -657,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="F3" s="2">
-        <v>40464.0</v>
+        <v>40464</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -669,12 +700,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>53.772183</v>
+        <v>53.772182999999998</v>
       </c>
       <c r="B4" s="1">
-        <v>-122.720729</v>
+        <v>-122.72072900000001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -683,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="1">
-        <v>594.0</v>
+        <v>594</v>
       </c>
       <c r="F4" s="2">
-        <v>39294.0</v>
+        <v>39294</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -695,9 +726,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>52.70982</v>
+        <v>52.709820000000001</v>
       </c>
       <c r="B5" s="1">
         <v>-119.19126</v>
@@ -709,18 +740,18 @@
         <v>24</v>
       </c>
       <c r="E5" s="1">
-        <v>2210.0</v>
+        <v>2210</v>
       </c>
       <c r="F5" s="2">
-        <v>40066.0</v>
+        <v>40066</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>53.753775</v>
+        <v>53.753774999999997</v>
       </c>
       <c r="B6" s="1">
         <v>-122.718864</v>
@@ -732,10 +763,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>593.0</v>
+        <v>593</v>
       </c>
       <c r="F6" s="2">
-        <v>39303.0</v>
+        <v>39303</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -744,9 +775,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>54.423494</v>
+        <v>54.423493999999998</v>
       </c>
       <c r="B7" s="1">
         <v>-122.627844</v>
@@ -758,10 +789,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="1">
-        <v>744.0</v>
+        <v>744</v>
       </c>
       <c r="F7" s="2">
-        <v>40297.0</v>
+        <v>40297</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
@@ -770,12 +801,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>53.114909</v>
+        <v>53.114908999999997</v>
       </c>
       <c r="B8" s="1">
-        <v>-119.835293</v>
+        <v>-119.83529299999999</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -784,10 +815,10 @@
         <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="F8" s="2">
-        <v>41522.0</v>
+        <v>41522</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -796,9 +827,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>54.422392</v>
+        <v>54.422392000000002</v>
       </c>
       <c r="B9" s="1">
         <v>-125.991293</v>
@@ -810,10 +841,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="1">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="F9" s="2">
-        <v>39338.0</v>
+        <v>39338</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -822,9 +853,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>53.883555</v>
+        <v>53.883555000000001</v>
       </c>
       <c r="B10" s="1">
         <v>-124.710668</v>
@@ -836,10 +867,10 @@
         <v>34</v>
       </c>
       <c r="E10" s="1">
-        <v>859.0</v>
+        <v>859</v>
       </c>
       <c r="F10" s="3">
-        <v>39339.0</v>
+        <v>39339</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -848,12 +879,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>58.18275</v>
+        <v>58.182749999999999</v>
       </c>
       <c r="B11" s="1">
-        <v>-129.89044</v>
+        <v>-129.89044000000001</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -862,18 +893,18 @@
         <v>36</v>
       </c>
       <c r="E11" s="1">
-        <v>1656.0</v>
+        <v>1656</v>
       </c>
       <c r="F11" s="2">
-        <v>40058.0</v>
+        <v>40058</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>58.75475</v>
+        <v>58.754750000000001</v>
       </c>
       <c r="B12" s="1">
         <v>-123.977683</v>
@@ -885,16 +916,16 @@
         <v>38</v>
       </c>
       <c r="E12" s="1">
-        <v>1460.0</v>
+        <v>1460</v>
       </c>
       <c r="F12" s="2">
-        <v>39695.0</v>
+        <v>39695</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>55.21275</v>
       </c>
@@ -908,10 +939,10 @@
         <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>1131.0</v>
+        <v>1131</v>
       </c>
       <c r="F13" s="2">
-        <v>41052.0</v>
+        <v>41052</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -920,9 +951,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>55.112303</v>
+        <v>55.112302999999997</v>
       </c>
       <c r="B14" s="1">
         <v>-122.818003</v>
@@ -931,10 +962,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="1">
-        <v>737.0</v>
+        <v>737</v>
       </c>
       <c r="F14" s="2">
-        <v>40024.0</v>
+        <v>40024</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>42</v>
@@ -946,9 +977,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>55.111059</v>
+        <v>55.111058999999997</v>
       </c>
       <c r="B15" s="1">
         <v>-122.841542</v>
@@ -957,10 +988,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="1">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="F15" s="2">
-        <v>39385.0</v>
+        <v>39385</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>42</v>
@@ -972,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>53.397852</v>
       </c>
@@ -986,10 +1017,10 @@
         <v>45</v>
       </c>
       <c r="E16" s="1">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="F16" s="2">
-        <v>40374.0</v>
+        <v>40374</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
@@ -998,9 +1029,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>55.137858</v>
+        <v>55.137858000000001</v>
       </c>
       <c r="B17" s="1">
         <v>-122.977243</v>
@@ -1012,10 +1043,10 @@
         <v>47</v>
       </c>
       <c r="E17" s="1">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="F17" s="2">
-        <v>40296.0</v>
+        <v>40296</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1024,29 +1055,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>53.33869</v>
       </c>
       <c r="B18" s="1">
-        <v>-120.12108</v>
+        <v>-120.12108000000001</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="2">
-        <v>40065.0</v>
+        <v>40065</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>57.550917</v>
+        <v>57.550916999999998</v>
       </c>
       <c r="B19" s="1">
         <v>-122.7963</v>
@@ -1058,10 +1089,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="1">
-        <v>972.0</v>
+        <v>972</v>
       </c>
       <c r="F19" s="2">
-        <v>39274.0</v>
+        <v>39274</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>18</v>
@@ -1073,9 +1104,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>59.002111</v>
+        <v>59.002110999999999</v>
       </c>
       <c r="B20" s="1">
         <v>-125.509361</v>
@@ -1087,10 +1118,10 @@
         <v>52</v>
       </c>
       <c r="E20" s="1">
-        <v>1683.0</v>
+        <v>1683</v>
       </c>
       <c r="F20" s="2">
-        <v>39275.0</v>
+        <v>39275</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
@@ -1099,9 +1130,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>51.81296</v>
+        <v>51.812959999999997</v>
       </c>
       <c r="B21" s="1">
         <v>-125.03981</v>
@@ -1110,21 +1141,21 @@
         <v>53</v>
       </c>
       <c r="E21" s="1">
-        <v>2092.0</v>
+        <v>2092</v>
       </c>
       <c r="F21" s="2">
-        <v>40068.0</v>
+        <v>40068</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>57.06163</v>
+        <v>57.061630000000001</v>
       </c>
       <c r="B22" s="1">
-        <v>-122.86491</v>
+        <v>-122.86490999999999</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>54</v>
@@ -1133,10 +1164,10 @@
         <v>55</v>
       </c>
       <c r="E22" s="1">
-        <v>1756.0</v>
+        <v>1756</v>
       </c>
       <c r="F22" s="2">
-        <v>39699.0</v>
+        <v>39699</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
@@ -1145,9 +1176,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>54.027523</v>
+        <v>54.027523000000002</v>
       </c>
       <c r="B23" s="1">
         <v>-123.300774</v>
@@ -1159,10 +1190,10 @@
         <v>57</v>
       </c>
       <c r="E23" s="1">
-        <v>718.0</v>
+        <v>718</v>
       </c>
       <c r="F23" s="2">
-        <v>39262.0</v>
+        <v>39262</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>58</v>
@@ -1171,9 +1202,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>54.22704</v>
+        <v>54.227040000000002</v>
       </c>
       <c r="B24" s="1">
         <v>-122.615111</v>
@@ -1185,10 +1216,10 @@
         <v>61</v>
       </c>
       <c r="E24" s="1">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="F24" s="2">
-        <v>40024.0</v>
+        <v>40024</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
@@ -1200,9 +1231,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>54.333115</v>
+        <v>54.333114999999999</v>
       </c>
       <c r="B25" s="1">
         <v>-126.099445</v>
@@ -1214,10 +1245,10 @@
         <v>63</v>
       </c>
       <c r="E25" s="1">
-        <v>869.0</v>
+        <v>869</v>
       </c>
       <c r="F25" s="2">
-        <v>39337.0</v>
+        <v>39337</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>58</v>
@@ -1226,12 +1257,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>53.772577</v>
+        <v>53.772576999999998</v>
       </c>
       <c r="B26" s="1">
-        <v>-122.724634</v>
+        <v>-122.72463399999999</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>64</v>
@@ -1240,16 +1271,16 @@
         <v>65</v>
       </c>
       <c r="E26" s="1">
-        <v>596.0</v>
+        <v>596</v>
       </c>
       <c r="F26" s="2">
-        <v>39294.0</v>
+        <v>39294</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -1263,16 +1294,16 @@
         <v>69</v>
       </c>
       <c r="E27" s="4">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="F27" s="3">
-        <v>42972.0</v>
+        <v>42972</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>58.745694</v>
       </c>
@@ -1286,10 +1317,10 @@
         <v>38</v>
       </c>
       <c r="E28" s="1">
-        <v>1486.0</v>
+        <v>1486</v>
       </c>
       <c r="F28" s="3">
-        <v>43327.0</v>
+        <v>43327</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>18</v>
@@ -1298,9 +1329,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>53.902111</v>
+        <v>53.902110999999998</v>
       </c>
       <c r="B29" s="6">
         <v>-122.015389</v>
@@ -1312,10 +1343,10 @@
         <v>74</v>
       </c>
       <c r="E29" s="1">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="F29" s="3">
-        <v>43356.0</v>
+        <v>43356</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1330,9 +1361,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>53.741139</v>
+        <v>53.741138999999997</v>
       </c>
       <c r="B30" s="6">
         <v>-121.784639</v>
@@ -1344,10 +1375,10 @@
         <v>77</v>
       </c>
       <c r="E30" s="1">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="F30" s="3">
-        <v>43357.0</v>
+        <v>43357</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>18</v>
@@ -1356,7 +1387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>54.238028</v>
       </c>
@@ -1370,10 +1401,10 @@
         <v>79</v>
       </c>
       <c r="E31" s="1">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="F31" s="3">
-        <v>43651.0</v>
+        <v>43651</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>18</v>
@@ -1382,9 +1413,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>53.871334</v>
+        <v>53.871333999999997</v>
       </c>
       <c r="B32" s="7">
         <v>-123.370441</v>
@@ -1396,10 +1427,10 @@
         <v>82</v>
       </c>
       <c r="E32" s="1">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="F32" s="3">
-        <v>44357.0</v>
+        <v>44357</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>18</v>
@@ -1408,9 +1439,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>54.78217</v>
+        <v>54.782170000000001</v>
       </c>
       <c r="B33" s="7">
         <v>-127.514341</v>
@@ -1422,10 +1453,10 @@
         <v>85</v>
       </c>
       <c r="E33" s="1">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="F33" s="3">
-        <v>44384.0</v>
+        <v>44384</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
@@ -1434,7 +1465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>54.510444</v>
       </c>
@@ -1448,10 +1479,10 @@
         <v>87</v>
       </c>
       <c r="E34" s="1">
-        <v>1051.0</v>
+        <v>1051</v>
       </c>
       <c r="F34" s="3">
-        <v>44386.0</v>
+        <v>44386</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>18</v>
@@ -1460,12 +1491,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>54.883903</v>
+        <v>54.883902999999997</v>
       </c>
       <c r="B35" s="7">
-        <v>-126.623533</v>
+        <v>-126.62353299999999</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>88</v>
@@ -1474,10 +1505,10 @@
         <v>88</v>
       </c>
       <c r="E35" s="1">
-        <v>848.0</v>
+        <v>848</v>
       </c>
       <c r="F35" s="3">
-        <v>44385.0</v>
+        <v>44385</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>18</v>
@@ -1486,12 +1517,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <v>54.243852</v>
+        <v>54.243851999999997</v>
       </c>
       <c r="B36" s="7">
-        <v>-122.490743</v>
+        <v>-122.49074299999999</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>89</v>
@@ -1500,10 +1531,10 @@
         <v>89</v>
       </c>
       <c r="E36" s="1">
-        <v>698.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>53.616222</v>
       </c>
@@ -1517,976 +1548,990 @@
         <v>90</v>
       </c>
       <c r="E37" s="1">
-        <v>881.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>58.35718</v>
+      </c>
+      <c r="B38" s="9">
+        <v>-129.54637</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/NBCClimateStns_VF.xlsx
+++ b/data/NBCClimateStns_VF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwang/Documents/projects/nbcclim/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE41787-36EB-CF40-9613-8A0EA6FF8593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B356CD-9ABA-074E-9977-83DA7281B63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10180" yWindow="1620" windowWidth="34560" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,12 +343,18 @@
       <name val="Aptos"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -363,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -374,6 +380,17 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,22 +608,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="19.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
     <col min="13" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,403 +669,406 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>55.078885</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-120.352171</v>
+        <v>54.510444</v>
+      </c>
+      <c r="B2" s="7">
+        <v>-126.614341</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1">
-        <v>962</v>
-      </c>
-      <c r="F2" s="2">
-        <v>41053</v>
+        <v>1051</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44386</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>55.108173000000001</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-127.37474</v>
+        <v>53.871333999999997</v>
+      </c>
+      <c r="B3" s="7">
+        <v>-123.370441</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="1">
-        <v>385</v>
-      </c>
-      <c r="F3" s="2">
-        <v>40464</v>
+        <v>865</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44357</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
+      <c r="L3" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>53.772182999999998</v>
+        <v>55.078885</v>
       </c>
       <c r="B4" s="1">
-        <v>-122.72072900000001</v>
+        <v>-120.352171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>594</v>
+        <v>962</v>
       </c>
       <c r="F4" s="2">
-        <v>39294</v>
+        <v>41053</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>52.709820000000001</v>
+        <v>55.108173000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>-119.19126</v>
+        <v>-127.37474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>2210</v>
+        <v>385</v>
       </c>
       <c r="F5" s="2">
-        <v>40066</v>
+        <v>40464</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>53.753774999999997</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-122.718864</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
-        <v>593</v>
-      </c>
-      <c r="F6" s="2">
-        <v>39303</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>53.902110999999998</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-122.015389</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="11">
+        <v>722</v>
+      </c>
+      <c r="F6" s="12">
+        <v>43356</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>54.423493999999998</v>
+        <v>53.772182999999998</v>
       </c>
       <c r="B7" s="1">
-        <v>-122.627844</v>
+        <v>-122.72072900000001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>744</v>
+        <v>594</v>
       </c>
       <c r="F7" s="2">
-        <v>40297</v>
+        <v>39294</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>53.114908999999997</v>
+        <v>52.709820000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>-119.83529299999999</v>
+        <v>-119.19126</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>890</v>
+        <v>2210</v>
       </c>
       <c r="F8" s="2">
-        <v>41522</v>
+        <v>40066</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>54.422392000000002</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-125.991293</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
-        <v>851</v>
-      </c>
-      <c r="F9" s="2">
-        <v>39338</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>58.35718</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-129.54637</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>54.883902999999997</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-126.62353299999999</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="17">
+        <v>848</v>
+      </c>
+      <c r="F10" s="18">
+        <v>44385</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>53.883555000000001</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-124.710668</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1">
-        <v>859</v>
-      </c>
-      <c r="F10" s="3">
-        <v>39339</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
+      <c r="L10" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>58.182749999999999</v>
+        <v>54.238028</v>
       </c>
       <c r="B11" s="1">
-        <v>-129.89044000000001</v>
+        <v>-122.877306</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
-        <v>1656</v>
-      </c>
-      <c r="F11" s="2">
-        <v>40058</v>
+        <v>720</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43651</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>58.754750000000001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-123.977683</v>
+      <c r="A12" s="6">
+        <v>53.741138999999997</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-121.784639</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>1460</v>
-      </c>
-      <c r="F12" s="2">
-        <v>39695</v>
+        <v>840</v>
+      </c>
+      <c r="F12" s="3">
+        <v>43357</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>55.21275</v>
+        <v>53.753774999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>-120.771635</v>
+        <v>-122.718864</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
-        <v>1131</v>
+        <v>593</v>
       </c>
       <c r="F13" s="2">
-        <v>41052</v>
+        <v>39303</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>55.112302999999997</v>
+        <v>54.423493999999998</v>
       </c>
       <c r="B14" s="1">
-        <v>-122.818003</v>
+        <v>-122.627844</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="1">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F14" s="2">
-        <v>40024</v>
+        <v>40297</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>55.111058999999997</v>
+        <v>53.114908999999997</v>
       </c>
       <c r="B15" s="1">
-        <v>-122.841542</v>
+        <v>-119.83529299999999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>745</v>
+        <v>890</v>
       </c>
       <c r="F15" s="2">
-        <v>39385</v>
+        <v>41522</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>53.397852</v>
+        <v>54.422392000000002</v>
       </c>
       <c r="B16" s="1">
-        <v>-124.513069</v>
+        <v>-125.991293</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
-        <v>1110</v>
+        <v>851</v>
       </c>
       <c r="F16" s="2">
-        <v>40374</v>
+        <v>39338</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>55.137858000000001</v>
+        <v>53.883555000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>-122.977243</v>
+        <v>-124.710668</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1">
-        <v>719</v>
-      </c>
-      <c r="F17" s="2">
-        <v>40296</v>
+        <v>859</v>
+      </c>
+      <c r="F17" s="3">
+        <v>39339</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1055,171 +1077,168 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>53.33869</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-120.12108000000001</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>40065</v>
-      </c>
-      <c r="G18" s="1" t="s">
+    <row r="18" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>58.182749999999999</v>
+      </c>
+      <c r="B18" s="11">
+        <v>-129.89044000000001</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1656</v>
+      </c>
+      <c r="F18" s="20">
+        <v>40058</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>57.550916999999998</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-122.7963</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1">
-        <v>972</v>
-      </c>
-      <c r="F19" s="2">
-        <v>39274</v>
-      </c>
-      <c r="G19" s="1" t="s">
+    <row r="19" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>58.745694</v>
+      </c>
+      <c r="B19" s="10">
+        <v>-123.977778</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1486</v>
+      </c>
+      <c r="F19" s="12">
+        <v>43327</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>59.002110999999999</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-125.509361</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1683</v>
-      </c>
-      <c r="F20" s="2">
-        <v>39275</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="I19" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>58.754750000000001</v>
+      </c>
+      <c r="B20" s="11">
+        <v>-123.977683</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1460</v>
+      </c>
+      <c r="F20" s="20">
+        <v>39695</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>51.812959999999997</v>
+        <v>55.21275</v>
       </c>
       <c r="B21" s="1">
-        <v>-125.03981</v>
+        <v>-120.771635</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="1">
-        <v>2092</v>
+        <v>1131</v>
       </c>
       <c r="F21" s="2">
-        <v>40068</v>
+        <v>41052</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>57.061630000000001</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-122.86490999999999</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1756</v>
-      </c>
-      <c r="F22" s="2">
-        <v>39699</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1670</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>54.027523000000002</v>
+        <v>55.112302999999997</v>
       </c>
       <c r="B23" s="1">
-        <v>-123.300774</v>
+        <v>-122.818003</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="F23" s="2">
-        <v>39262</v>
+        <v>40024</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>54.227040000000002</v>
+        <v>55.111058999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>-122.615111</v>
+        <v>-122.841542</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="F24" s="2">
-        <v>40024</v>
+        <v>39385</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>42</v>
@@ -1233,25 +1252,25 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>54.333114999999999</v>
+        <v>53.397852</v>
       </c>
       <c r="B25" s="1">
-        <v>-126.099445</v>
+        <v>-124.513069</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
-        <v>869</v>
+        <v>1110</v>
       </c>
       <c r="F25" s="2">
-        <v>39337</v>
+        <v>40374</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>15</v>
@@ -1259,325 +1278,325 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>53.772576999999998</v>
+        <v>55.137858000000001</v>
       </c>
       <c r="B26" s="1">
-        <v>-122.72463399999999</v>
+        <v>-122.977243</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1">
-        <v>596</v>
+        <v>719</v>
       </c>
       <c r="F26" s="2">
-        <v>39294</v>
+        <v>40296</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1670</v>
-      </c>
-      <c r="F27" s="3">
-        <v>42972</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>58.745694</v>
-      </c>
-      <c r="B28" s="6">
-        <v>-123.977778</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1486</v>
-      </c>
-      <c r="F28" s="3">
-        <v>43327</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="A27" s="1">
+        <v>53.33869</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-120.12108000000001</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>40065</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>72</v>
+    </row>
+    <row r="28" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>54.782170000000001</v>
+      </c>
+      <c r="B28" s="15">
+        <v>-127.514341</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="11">
+        <v>980</v>
+      </c>
+      <c r="F28" s="12">
+        <v>44384</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>53.902110999999998</v>
-      </c>
-      <c r="B29" s="6">
-        <v>-122.015389</v>
+      <c r="A29" s="1">
+        <v>57.550916999999998</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-122.7963</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1">
-        <v>722</v>
-      </c>
-      <c r="F29" s="3">
-        <v>43356</v>
+        <v>972</v>
+      </c>
+      <c r="F29" s="2">
+        <v>39274</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>53.741138999999997</v>
-      </c>
-      <c r="B30" s="6">
-        <v>-121.784639</v>
+      <c r="A30" s="1">
+        <v>59.002110999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-125.509361</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1">
-        <v>840</v>
-      </c>
-      <c r="F30" s="3">
-        <v>43357</v>
+        <v>1683</v>
+      </c>
+      <c r="F30" s="2">
+        <v>39275</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>72</v>
+      <c r="H30" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>54.238028</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-122.877306</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>79</v>
+      <c r="A31" s="7">
+        <v>54.243851999999997</v>
+      </c>
+      <c r="B31" s="7">
+        <v>-122.49074299999999</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E31" s="1">
-        <v>720</v>
-      </c>
-      <c r="F31" s="3">
-        <v>43651</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>53.871333999999997</v>
-      </c>
-      <c r="B32" s="7">
-        <v>-123.370441</v>
+        <v>51.812959999999997</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-125.03981</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1">
-        <v>865</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44357</v>
+        <v>2092</v>
+      </c>
+      <c r="F32" s="2">
+        <v>40068</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>54.782170000000001</v>
-      </c>
-      <c r="B33" s="7">
-        <v>-127.514341</v>
+        <v>57.061630000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-122.86490999999999</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1">
-        <v>980</v>
-      </c>
-      <c r="F33" s="3">
-        <v>44384</v>
+        <v>1756</v>
+      </c>
+      <c r="F33" s="2">
+        <v>39699</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>54.510444</v>
-      </c>
-      <c r="B34" s="7">
-        <v>-126.614341</v>
+        <v>54.027523000000002</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-123.300774</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1">
-        <v>1051</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44386</v>
+        <v>718</v>
+      </c>
+      <c r="F34" s="2">
+        <v>39262</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>53.616222</v>
+      </c>
+      <c r="B35" s="7">
+        <v>-122.537904</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>54.227040000000002</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-122.615111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1">
+        <v>690</v>
+      </c>
+      <c r="F36" s="2">
+        <v>40024</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>54.333114999999999</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-126.099445</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1">
+        <v>869</v>
+      </c>
+      <c r="F37" s="2">
+        <v>39337</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>53.772576999999998</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-122.72463399999999</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1">
+        <v>596</v>
+      </c>
+      <c r="F38" s="2">
+        <v>39294</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>54.883902999999997</v>
-      </c>
-      <c r="B35" s="7">
-        <v>-126.62353299999999</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="1">
-        <v>848</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44385</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>54.243851999999997</v>
-      </c>
-      <c r="B36" s="7">
-        <v>-122.49074299999999</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="1">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>53.616222</v>
-      </c>
-      <c r="B37" s="7">
-        <v>-122.537904</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>58.35718</v>
-      </c>
-      <c r="B38" s="9">
-        <v>-129.54637</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="9">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2531,6 +2550,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
+    <sortCondition ref="C2:C38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
